--- a/db/db_I.3.2.2.7_cleared.xlsx
+++ b/db/db_I.3.2.2.7_cleared.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\235media\Projekte\sdm\brauchtum\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC539A09-74D8-4AC2-A300-20D06B6C530A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20176D48-27B9-4EC9-B593-C62210901A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.3.2.2 - Audio rel. Brauchtum" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="652">
   <si>
     <t>Weihnachten</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Osterreiten im Niederland</t>
   </si>
   <si>
-    <t>„Rote rote Eier raus, sonst peitsch' ich euer Dirndl aus!“</t>
-  </si>
-  <si>
     <t xml:space="preserve">Frühmorgens kam der Osterreiterverein und zog mit 20 bis 35 blumengeschmückten Pferden, Musik und Fahnen durch das Dorf. Nach dem Ostersingen in der Kirche ging nachmittags der Umzug weiter in die Stadt, nach Schluckenau. Bei der Rückkehr läuteten die Kirchenglocken, die Musik spielte und der Tumult ging los, so dass die Pferde tänzelten und ausschlugen. </t>
   </si>
   <si>
@@ -714,307 +711,22 @@
     <t>„Das Vieh hat geredet, da durfte man nicht zuhören...“</t>
   </si>
   <si>
-    <t>“...then we knew that no one would die the following year.”</t>
-  </si>
-  <si>
-    <t>„...da wusste man, dass im nächsten Jahr keiner sterben wird.“</t>
-  </si>
-  <si>
-    <t>„Es musste ja jeder auch einen Schnaps kriegen...“</t>
-  </si>
-  <si>
-    <t>“Everyone had to be given a schnapps...”</t>
-  </si>
-  <si>
-    <t>„Oh, unser Maskenzug...der war herrlich!“</t>
-  </si>
-  <si>
-    <t>“Oh, our masked parade...how wonderful it was!”</t>
-  </si>
-  <si>
-    <t>„Manchmal ist der Herr Pfarrer gekommen und hat uns sakrisch ausgeschimpft...“</t>
-  </si>
-  <si>
-    <t>“Sometimes the priest came and scolded us terribly...”</t>
-  </si>
-  <si>
-    <t>„Da sind wir durchs ganze Dorf gezogen, weil ja die Glocken nach Rom geflogen waren...“</t>
-  </si>
-  <si>
-    <t>“We marched through the whole village because the church bells had flown off to Rome...”</t>
-  </si>
-  <si>
-    <t>„Das Geschrei und die Ratschen, was die für einen Lärm gemacht haben...!“</t>
-  </si>
-  <si>
-    <t>“The shouting and the rattling, what a noise they made...!”</t>
-  </si>
-  <si>
-    <t>„...da mussten sich alle in dem Bach waschen gehen, eiskaltes Wasser!“</t>
-  </si>
-  <si>
-    <t>“...everyone had to go and wash themselves in the stream, in ice-cold water!”</t>
-  </si>
-  <si>
     <t>„Ty hezké jsme vyšlehali trochu víc než ty škaredé.“</t>
   </si>
   <si>
-    <t>„Na, erst war's ja sehr schön, da ging's noch alles im Takt...“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“At first, it was all very nice, everything was still to the beat...” </t>
-  </si>
-  <si>
-    <t>„Zu Ostern, da gab's bei uns ja ein Osterreiten...“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“At Easter, we always had the Easter ride...” </t>
-  </si>
-  <si>
-    <t>„...und so sind sie durch die Flur geritten.“</t>
-  </si>
-  <si>
-    <t>“...and so they rode through the meadows.”</t>
-  </si>
-  <si>
-    <t>„...und wenn sie runterkamen, waren sie hin!“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“...and when they came back down, they smashed into pieces!” </t>
-  </si>
-  <si>
-    <t>„Der erste im Ziel bekam die Fahne, der war der Held des Tages...“</t>
-  </si>
-  <si>
-    <t>“The first rider to reach the target was given the flag, he was the hero of the day...”</t>
-  </si>
-  <si>
-    <t>„Wir haben die Besen angezündet...“</t>
-  </si>
-  <si>
-    <t>“We set alight to the brooms...”</t>
-  </si>
-  <si>
-    <t>„Und dann sind wir wieder ins Wirtshaus gegangen...“</t>
-  </si>
-  <si>
-    <t>“And then we returned to the inn...”</t>
-  </si>
-  <si>
-    <t>„...und das hat drei Tage lang gedauert.“</t>
-  </si>
-  <si>
-    <t>“...and it lasted for three days.”</t>
-  </si>
-  <si>
-    <t>„Mit ein paar Ketten kam der Niklo angerasselt...“</t>
-  </si>
-  <si>
-    <t>“Niklo came rattling with a pair of chains...”</t>
-  </si>
-  <si>
-    <t>„Ich werd‘ euch in den Sack stecken müssen...“</t>
-  </si>
-  <si>
-    <t>“I’ll have to put you into my sack...”</t>
-  </si>
-  <si>
-    <t>„Der Rupprecht, der war in Stroh und der hatte vier Schellen...“</t>
-  </si>
-  <si>
-    <t>“Rupprecht came wearing straw and had four cowbells...”</t>
-  </si>
-  <si>
-    <t>„Weit und breit kamen die Leute und taten’s sich ansehen...!“</t>
-  </si>
-  <si>
-    <t>“People came from far afield and had a good look...!”</t>
-  </si>
-  <si>
-    <t>„Da musste alles stimmen, sonst wurde er gar nicht genommen, der Baum...“</t>
-  </si>
-  <si>
-    <t>“Everything had to be just right, otherwise the tree wouldn’t have been selected...”</t>
-  </si>
-  <si>
-    <t>„...sonst hat man kein Glück das ganze Jahr.“</t>
-  </si>
-  <si>
-    <t>“...otherwise you‘ll have no luck for the entire year.”</t>
-  </si>
-  <si>
     <t>„Během Štědrovečerní večeře byly dveře od stavení pevně zamčené.“</t>
   </si>
   <si>
-    <t>„...da ist viel geschossen worden an Heiligabend.“</t>
-  </si>
-  <si>
-    <t>“...many firecrackers were left off on Christmas Eve.”</t>
-  </si>
-  <si>
-    <t>„Am Heiligen Abend, da musst’s halt Karpfen sein...“</t>
-  </si>
-  <si>
-    <t>“On Christmas Eve it simply had to be carp...”</t>
-  </si>
-  <si>
-    <t>„Die Braut hat abbitten müssen...“</t>
-  </si>
-  <si>
-    <t>“The bride had to beg for forgiveness...”</t>
-  </si>
-  <si>
-    <t>„Wenn bei uns eine Hochzeit war, das war ja ein Trara...!“</t>
-  </si>
-  <si>
-    <t>“When we had a wedding, there was such great razmaztazz...!”</t>
-  </si>
-  <si>
-    <t>„...und für die Kinder gab’s Rosenkränze aus Zuckerguss.“</t>
-  </si>
-  <si>
-    <t>“...and for the children, there were rosaries made from icing sugar.”</t>
-  </si>
-  <si>
-    <t>„...die haben gewusst, dass sie die Muttergottes gesund macht.“</t>
-  </si>
-  <si>
-    <t>“...they knew that the Mother of God makes them well.”</t>
-  </si>
-  <si>
-    <t>„Das sind wir zu Fuß gerannt, die Schuhe über die Schulter gehängt...“</t>
-  </si>
-  <si>
-    <t>“We ran there with our shoes hanging over our shoulders...”</t>
-  </si>
-  <si>
-    <t>„Da haben wir uns immer Zuckerstangen gekauft...“</t>
-  </si>
-  <si>
-    <t>“We always bought candy canes there...”</t>
-  </si>
-  <si>
-    <t>„...und die sind jahrzehntelang dort gestanden, bis sie verfault sind.“</t>
-  </si>
-  <si>
-    <t>“...and they stood there for decades until they decomposed.”</t>
-  </si>
-  <si>
-    <t>„Und wenn eins gestorben ist von uns, dann ist’s aufs Brettl gekommen...“</t>
-  </si>
-  <si>
-    <t>„So haben diese vier Männer den Sarg dreimal tief gesenkt zum Zeichen des Abschieds...“</t>
-  </si>
-  <si>
-    <t>“These four men lowered the coffin three times as a sign of farewell...”</t>
-  </si>
-  <si>
     <t>„Dobytek mluvil lidskou řečí, nesmělo se mu naslouchat...“</t>
   </si>
   <si>
-    <t>„...a to jsme pak věděli, že v příštím roce nikdo neumře.“</t>
-  </si>
-  <si>
-    <t>„Každý přeci musel taky dostat nalito kořalky...“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">„Ach, náš maškarní průvod...to byla nádhera!“ </t>
-  </si>
-  <si>
-    <t>„Někdy přišel pan farář a sakramentsky nám vyhuboval...“</t>
-  </si>
-  <si>
-    <t>„Táhli jsme celou vesnicí, protože zvony přeci odletěly do Říma...“</t>
-  </si>
-  <si>
-    <t>„Toho křiku a řehtačky, jaký ty dělaly rámus...!“</t>
-  </si>
-  <si>
     <t>Divoké noci na Žatecku</t>
   </si>
   <si>
-    <t>„...a všichni se museli jít omýt do potoka, voda byla studená jako led!“</t>
-  </si>
-  <si>
-    <t>„No, na začátku to bylo moc hezký, to ještě všichni drželi takt...“</t>
-  </si>
-  <si>
-    <t>„O Velikonocích se u nás konala Velikonoční jízda...“</t>
-  </si>
-  <si>
-    <t>„...a tak jeli po rolích.“</t>
-  </si>
-  <si>
-    <t>„...a když spadly na zem, bylo po nich!“</t>
-  </si>
-  <si>
-    <t>„Kdo dojel do cíle jako první, dostal vlajku a byl hrdina dne...“</t>
-  </si>
-  <si>
-    <t>„Zapalovali jsme košťata...“</t>
-  </si>
-  <si>
-    <t>„A potom jsme šli zase do hospody...“</t>
-  </si>
-  <si>
-    <t>„...a tak to pak šlo celé tři dny.“</t>
-  </si>
-  <si>
     <t>„Většina lidí zůstala stát u kolotoče.“</t>
   </si>
   <si>
-    <t>„Přihnal se Mikuláš a chřestil řetězy...“</t>
-  </si>
-  <si>
-    <t>„Budu vás muset strčit do pytle...“</t>
-  </si>
-  <si>
-    <t>„Pacholek Ruprecht byl oblečený do slámy a měl čtyři zvonce...“</t>
-  </si>
-  <si>
-    <t>„Lidé se na něj jezdili dívat ze široka zdaleka...!“</t>
-  </si>
-  <si>
-    <t>„Na stromečku muselo být všechno akurátní, jinak jsme si ho vůbec nevzali...“</t>
-  </si>
-  <si>
-    <t>„...jinak člověk po celý rok nebude mít štěstí.“</t>
-  </si>
-  <si>
-    <t>„...a na Štědrý večer se hodně střílelo.“</t>
-  </si>
-  <si>
-    <t>„Na Štědrý večer prostě musel být na stole kapr...“</t>
-  </si>
-  <si>
-    <t>„Nevěsta musela odprosit rodiče...“</t>
-  </si>
-  <si>
-    <t>„Když se u nás konala svatba, to tedy bylo povyku...!“</t>
-  </si>
-  <si>
     <t>„Hlavní bylo, jestli vyhovovalo hospodářství, a jestli se děvče do toho hospodářství hodilo.“</t>
-  </si>
-  <si>
-    <t>„...a děti dostávaly růžence z cukrové polevy.“</t>
-  </si>
-  <si>
-    <t>„...oni věděli, že Matka Boží je uzdraví.“</t>
-  </si>
-  <si>
-    <t>„Běželi jsme bosky, boty přehozené přes rameno...“</t>
-  </si>
-  <si>
-    <t>„Tam jsme si vždycky kupovali cukrové tyčinky...“</t>
-  </si>
-  <si>
-    <t>„...a ona tam pak stála desítky let, až se rozpadla.“</t>
-  </si>
-  <si>
-    <t>„A když někdo z nás umřel, tak šel na prkno...“</t>
-  </si>
-  <si>
-    <t>„A na znamení loučení ti čtyři muži rakev třikrát spustili hluboko k zemi...“</t>
   </si>
   <si>
     <t>Sny, které se lidem zdály v divokých neboli svatých nocích v době mezi Štědrým dnem (24. prosince) a svátkem Tří králů (6. ledna), se měly vyplnit. Říkalo se, že dobytek v tento čas mluví lidskou řečí. Aby se odehnalo neštěstí, nesmělo se mu naslouchat ani věšet prádlo. Na hrob zemřelých členů rodiny se měl položit měďák, aby si za něj mohli v nebi koupit otčenáš.</t>
@@ -1212,12 +924,6 @@
     <t>Todaustragen in der Wischauer Sprachinsel</t>
   </si>
   <si>
-    <t>„Was haben wir, was tragen wir? Den lieben Tod begraben wir...“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“What do we have, what are we carrying away? We are burying dear Death...” </t>
-  </si>
-  <si>
     <t xml:space="preserve">During Lent, young girls between the ages of 13 and 14 carried away Death. They went from house to house with a straw doll as a symbol of Death and sang a song. In this way, they wanted to mark the end of the winter. Burying Death meant burying winter. From each housewife, the young girls received eggs, lard, semolina and money. They prepared a good meal for themselves and divided up what remained. </t>
   </si>
   <si>
@@ -1269,9 +975,6 @@
     <t xml:space="preserve">It was the parents, not the future bride and bridegroom, who decided whether there would be a wedding. If they were agreed on the dowry, then a date for the wedding would be set and the preparations undertaken. On the way to the church, the bridegroom went on ahead, followed by the couple’s relatives and godparents; the bride came last with the best man. When the latter had handed over the bride to the bridegroom at the altar, the ceremony could get under way. The wedding party usually took place in front of the parents’ house and could last as long as three days. Around eight o’clock, the bed chamber cart arrived – a wooden cart on which the bride’s beds had been piled high. Two women in the Egerland traditional costume who were perched on the cart held the beds in place with silk ribbons. More often than not, a second cart transported the work tools. The bed chamber cart drove to the new home of the couple, where their married life began. </t>
   </si>
   <si>
-    <t>“And when one of us had died, he or she was put on the wooden board....”</t>
-  </si>
-  <si>
     <t>“The pretty ones were lashed a bit more than the plain ones.”</t>
   </si>
   <si>
@@ -1404,9 +1107,6 @@
     <t>Text EN</t>
   </si>
   <si>
-    <t>„Co to máme, co neseme? Smrtečku pohřbíváme...“</t>
-  </si>
-  <si>
     <t>Vynášení smrtky ve vyškovském jazykovém ostrově</t>
   </si>
   <si>
@@ -2002,6 +1702,315 @@
   </si>
   <si>
     <t>text11-3</t>
+  </si>
+  <si>
+    <t>„Das Vieh hat geredet, da durfte man nicht zuhören …“</t>
+  </si>
+  <si>
+    <t>„Dobytek mluvil lidskou řečí, nesmělo se mu naslouchat…“</t>
+  </si>
+  <si>
+    <t>“The cattle have spoken, no one should be listening…”</t>
+  </si>
+  <si>
+    <t>„… da wusste man, dass im nächsten Jahr keiner sterben wird.“</t>
+  </si>
+  <si>
+    <t>„…a to jsme pak věděli, že v příštím roce nikdo neumře.“</t>
+  </si>
+  <si>
+    <t>“…then we knew that no one would die the following year.”</t>
+  </si>
+  <si>
+    <t>„Es musste ja jeder auch einen Schnaps kriegen …“</t>
+  </si>
+  <si>
+    <t>„Každý přeci musel taky dostat nalito kořalky…“</t>
+  </si>
+  <si>
+    <t>“Everyone had to be given a schnapps…”</t>
+  </si>
+  <si>
+    <t>„Oh, unser Maskenzug … der war herrlich!“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Ach, náš maškarní průvod…to byla nádhera!“ </t>
+  </si>
+  <si>
+    <t>“Oh, our masked parade…how wonderful it was!”</t>
+  </si>
+  <si>
+    <t>„Manchmal ist der Herr Pfarrer gekommen und hat uns sakrisch ausgeschimpft …“</t>
+  </si>
+  <si>
+    <t>„Někdy přišel pan farář a sakramentsky nám vyhuboval…“</t>
+  </si>
+  <si>
+    <t>“Sometimes the priest came and scolded us terribly…”</t>
+  </si>
+  <si>
+    <t>„Was haben wir, was tragen wir? Den lieben Tod begraben wir …“</t>
+  </si>
+  <si>
+    <t>„Co to máme, co neseme? Smrtečku pohřbíváme…“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“What do we have, what are we carrying away? We are burying dear Death…” </t>
+  </si>
+  <si>
+    <t>„Da sind wir durchs ganze Dorf gezogen, weil ja die Glocken nach Rom geflogen waren …“</t>
+  </si>
+  <si>
+    <t>„Táhli jsme celou vesnicí, protože zvony přeci odletěly do Říma…“</t>
+  </si>
+  <si>
+    <t>“We marched through the whole village because the church bells had flown off to Rome…”</t>
+  </si>
+  <si>
+    <t>„Das Geschrei und die Ratschen, was die für einen Lärm gemacht haben …!“</t>
+  </si>
+  <si>
+    <t>„Toho křiku a řehtačky, jaký ty dělaly rámus…!“</t>
+  </si>
+  <si>
+    <t>“The shouting and the rattling, what a noise they made…!”</t>
+  </si>
+  <si>
+    <t>„… da mussten sich alle in dem Bach waschen gehen, eiskaltes Wasser!“</t>
+  </si>
+  <si>
+    <t>„…a všichni se museli jít omýt do potoka, voda byla studená jako led!“</t>
+  </si>
+  <si>
+    <t>“…everyone had to go and wash themselves in the stream, in ice-cold water!”</t>
+  </si>
+  <si>
+    <t>„Rote rote Eier raus, sonst peitsch′ ich euer Dirndl aus!“</t>
+  </si>
+  <si>
+    <t>„Na, erst war′s ja sehr schön, da ging's noch alles im Takt …“</t>
+  </si>
+  <si>
+    <t>„No, na začátku to bylo moc hezký, to ještě všichni drželi takt…“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“At first, it was all very nice, everything was still to the beat…” </t>
+  </si>
+  <si>
+    <t>„Zu Ostern, da gab′s bei uns ja ein Osterreiten …“</t>
+  </si>
+  <si>
+    <t>„O Velikonocích se u nás konala Velikonoční jízda…“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“At Easter, we always had the Easter ride…” </t>
+  </si>
+  <si>
+    <t>„… und so sind sie durch die Flur geritten.“</t>
+  </si>
+  <si>
+    <t>„…a tak jeli po rolích.“</t>
+  </si>
+  <si>
+    <t>“…and so they rode through the meadows.”</t>
+  </si>
+  <si>
+    <t>„… und wenn sie runterkamen, waren sie hin!“</t>
+  </si>
+  <si>
+    <t>„…a když spadly na zem, bylo po nich!“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“…and when they came back down, they smashed into pieces!” </t>
+  </si>
+  <si>
+    <t>„Der erste im Ziel bekam die Fahne, der war der Held des Tages …“</t>
+  </si>
+  <si>
+    <t>„Kdo dojel do cíle jako první, dostal vlajku a byl hrdina dne…“</t>
+  </si>
+  <si>
+    <t>“The first rider to reach the target was given the flag, he was the hero of the day…”</t>
+  </si>
+  <si>
+    <t>„Wir haben die Besen angezündet …“</t>
+  </si>
+  <si>
+    <t>„Zapalovali jsme košťata…“</t>
+  </si>
+  <si>
+    <t>“We set alight to the brooms…”</t>
+  </si>
+  <si>
+    <t>„Und dann sind wir wieder ins Wirtshaus gegangen …“</t>
+  </si>
+  <si>
+    <t>„A potom jsme šli zase do hospody…“</t>
+  </si>
+  <si>
+    <t>“And then we returned to the inn…”</t>
+  </si>
+  <si>
+    <t>„… und das hat drei Tage lang gedauert.“</t>
+  </si>
+  <si>
+    <t>„…a tak to pak šlo celé tři dny.“</t>
+  </si>
+  <si>
+    <t>“…and it lasted for three days.”</t>
+  </si>
+  <si>
+    <t>„Mit ein paar Ketten kam der Niklo angerasselt …“</t>
+  </si>
+  <si>
+    <t>„Přihnal se Mikuláš a chřestil řetězy…“</t>
+  </si>
+  <si>
+    <t>“Niklo came rattling with a pair of chains…”</t>
+  </si>
+  <si>
+    <t>„Ich werd‘ euch in den Sack stecken müssen …“</t>
+  </si>
+  <si>
+    <t>„Budu vás muset strčit do pytle…“</t>
+  </si>
+  <si>
+    <t>“I’ll have to put you into my sack…”</t>
+  </si>
+  <si>
+    <t>„Der Rupprecht, der war in Stroh und der hatte vier Schellen …“</t>
+  </si>
+  <si>
+    <t>„Pacholek Ruprecht byl oblečený do slámy a měl čtyři zvonce…“</t>
+  </si>
+  <si>
+    <t>“Rupprecht came wearing straw and had four cowbells…”</t>
+  </si>
+  <si>
+    <t>„Weit und breit kamen die Leute und taten’s sich ansehen …!“</t>
+  </si>
+  <si>
+    <t>„Lidé se na něj jezdili dívat ze široka zdaleka…!“</t>
+  </si>
+  <si>
+    <t>“People came from far afield and had a good look…!”</t>
+  </si>
+  <si>
+    <t>„Da musste alles stimmen, sonst wurde er gar nicht genommen, der Baum …“</t>
+  </si>
+  <si>
+    <t>„Na stromečku muselo být všechno akurátní, jinak jsme si ho vůbec nevzali…“</t>
+  </si>
+  <si>
+    <t>“Everything had to be just right, otherwise the tree wouldn’t have been selected…”</t>
+  </si>
+  <si>
+    <t>„… sonst hat man kein Glück das ganze Jahr.“</t>
+  </si>
+  <si>
+    <t>„…jinak člověk po celý rok nebude mít štěstí.“</t>
+  </si>
+  <si>
+    <t>“…otherwise you‘ll have no luck for the entire year.”</t>
+  </si>
+  <si>
+    <t>„… da ist viel geschossen worden an Heiligabend.“</t>
+  </si>
+  <si>
+    <t>„…a na Štědrý večer se hodně střílelo.“</t>
+  </si>
+  <si>
+    <t>“…many firecrackers were left off on Christmas Eve.”</t>
+  </si>
+  <si>
+    <t>„Am Heiligen Abend, da musst’s halt Karpfen sein …“</t>
+  </si>
+  <si>
+    <t>„Na Štědrý večer prostě musel být na stole kapr…“</t>
+  </si>
+  <si>
+    <t>“On Christmas Eve it simply had to be carp…”</t>
+  </si>
+  <si>
+    <t>„Die Braut hat abbitten müssen …“</t>
+  </si>
+  <si>
+    <t>„Nevěsta musela odprosit rodiče…“</t>
+  </si>
+  <si>
+    <t>“The bride had to beg for forgiveness…”</t>
+  </si>
+  <si>
+    <t>„Wenn bei uns eine Hochzeit war, das war ja ein Trara …!“</t>
+  </si>
+  <si>
+    <t>„Když se u nás konala svatba, to tedy bylo povyku…!“</t>
+  </si>
+  <si>
+    <t>“When we had a wedding, there was such great razmaztazz…!”</t>
+  </si>
+  <si>
+    <t>„… und für die Kinder gab’s Rosenkränze aus Zuckerguss.“</t>
+  </si>
+  <si>
+    <t>„…a děti dostávaly růžence z cukrové polevy.“</t>
+  </si>
+  <si>
+    <t>“…and for the children, there were rosaries made from icing sugar.”</t>
+  </si>
+  <si>
+    <t>„… die haben gewusst, dass sie die Muttergottes gesund macht.“</t>
+  </si>
+  <si>
+    <t>„…oni věděli, že Matka Boží je uzdraví.“</t>
+  </si>
+  <si>
+    <t>“…they knew that the Mother of God makes them well.”</t>
+  </si>
+  <si>
+    <t>„Das sind wir zu Fuß gerannt, die Schuhe über die Schulter gehängt …“</t>
+  </si>
+  <si>
+    <t>„Běželi jsme bosky, boty přehozené přes rameno…“</t>
+  </si>
+  <si>
+    <t>“We ran there with our shoes hanging over our shoulders…”</t>
+  </si>
+  <si>
+    <t>„Da haben wir uns immer Zuckerstangen gekauft …“</t>
+  </si>
+  <si>
+    <t>„Tam jsme si vždycky kupovali cukrové tyčinky…“</t>
+  </si>
+  <si>
+    <t>“We always bought candy canes there…”</t>
+  </si>
+  <si>
+    <t>„… und die sind jahrzehntelang dort gestanden, bis sie verfault sind.“</t>
+  </si>
+  <si>
+    <t>„…a ona tam pak stála desítky let, až se rozpadla.“</t>
+  </si>
+  <si>
+    <t>“…and they stood there for decades until they decomposed.”</t>
+  </si>
+  <si>
+    <t>„Und wenn eins gestorben ist von uns, dann ist’s aufs Brettl gekommen …“</t>
+  </si>
+  <si>
+    <t>„A když někdo z nás umřel, tak šel na prkno…“</t>
+  </si>
+  <si>
+    <t>“And when one of us had died, he or she was put on the wooden board…”</t>
+  </si>
+  <si>
+    <t>„So haben diese vier Männer den Sarg dreimal tief gesenkt zum Zeichen des Abschieds …“</t>
+  </si>
+  <si>
+    <t>„A na znamení loučení ti čtyři muži rakev třikrát spustili hluboko k zemi…“</t>
+  </si>
+  <si>
+    <t>“These four men lowered the coffin three times as a sign of farewell…”</t>
   </si>
 </sst>
 </file>
@@ -2168,7 +2177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2255,6 +2264,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2574,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GO198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153:D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,13 +2604,13 @@
   <sheetData>
     <row r="1" spans="1:197" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>453</v>
+        <v>353</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>452</v>
+        <v>352</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>453</v>
+        <v>353</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2707,30 +2722,30 @@
     </row>
     <row r="2" spans="1:197" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>354</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>355</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2928,16 +2943,16 @@
     </row>
     <row r="4" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>356</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3135,16 +3150,16 @@
     </row>
     <row r="5" spans="1:197" s="14" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>357</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3342,16 +3357,16 @@
     </row>
     <row r="6" spans="1:197" s="14" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>358</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3549,16 +3564,16 @@
     </row>
     <row r="7" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3756,16 +3771,16 @@
     </row>
     <row r="8" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>369</v>
+        <v>273</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3963,16 +3978,16 @@
     </row>
     <row r="9" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>361</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4170,16 +4185,16 @@
     </row>
     <row r="10" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4377,16 +4392,16 @@
     </row>
     <row r="11" spans="1:197" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>363</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -4584,16 +4599,16 @@
     </row>
     <row r="12" spans="1:197" s="14" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>364</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4791,2590 +4806,2601 @@
     </row>
     <row r="13" spans="1:197" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>465</v>
+        <v>365</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:197" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:197" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>467</v>
+        <v>367</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:197" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>351</v>
+      <c r="C16" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>469</v>
-      </c>
-      <c r="B17" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>119</v>
+      <c r="C17" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>470</v>
-      </c>
-      <c r="B18" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>436</v>
+      <c r="C18" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>471</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>435</v>
+        <v>371</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>472</v>
-      </c>
-      <c r="B20" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>413</v>
+      <c r="C20" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>473</v>
-      </c>
-      <c r="B21" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>352</v>
+      <c r="C21" s="31" t="s">
+        <v>256</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>474</v>
-      </c>
-      <c r="B22" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>121</v>
+      <c r="C22" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>475</v>
-      </c>
-      <c r="B23" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>414</v>
+      <c r="C23" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>476</v>
-      </c>
-      <c r="B24" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>166</v>
+      <c r="C24" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>477</v>
-      </c>
-      <c r="B25" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>354</v>
+      <c r="C25" s="31" t="s">
+        <v>258</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>478</v>
-      </c>
-      <c r="B26" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>123</v>
+      <c r="C26" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>479</v>
-      </c>
-      <c r="B27" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>441</v>
+      <c r="C27" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>480</v>
-      </c>
-      <c r="B28" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>442</v>
+      <c r="C28" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>416</v>
+        <v>381</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>482</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>129</v>
+        <v>382</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>483</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>437</v>
+        <v>383</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>484</v>
-      </c>
-      <c r="B32" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>134</v>
+      <c r="C32" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>485</v>
-      </c>
-      <c r="B33" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>443</v>
+      <c r="C33" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>486</v>
-      </c>
-      <c r="B34" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>438</v>
+      <c r="C34" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>487</v>
-      </c>
-      <c r="B35" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>417</v>
+      <c r="C35" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>488</v>
-      </c>
-      <c r="B36" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>359</v>
+      <c r="C36" s="31" t="s">
+        <v>263</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>393</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>489</v>
-      </c>
-      <c r="B37" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>382</v>
+      <c r="C37" s="31" t="s">
+        <v>286</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>490</v>
-      </c>
-      <c r="B38" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>141</v>
+      <c r="C38" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>491</v>
-      </c>
-      <c r="B39" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>168</v>
+      <c r="C39" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>492</v>
-      </c>
-      <c r="B40" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>444</v>
+      <c r="C40" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>493</v>
-      </c>
-      <c r="B41" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>144</v>
+      <c r="C41" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>494</v>
-      </c>
-      <c r="B42" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>445</v>
+      <c r="C42" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>495</v>
-      </c>
-      <c r="B43" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>148</v>
+      <c r="C43" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>496</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>146</v>
+        <v>396</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>497</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>150</v>
+        <v>397</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>498</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>198</v>
+        <v>398</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>499</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>364</v>
+        <v>399</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>268</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>500</v>
-      </c>
-      <c r="B48" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B48" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>420</v>
+      <c r="C48" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>501</v>
-      </c>
-      <c r="B49" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>422</v>
+      <c r="C49" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>502</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>439</v>
+        <v>402</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>503</v>
-      </c>
-      <c r="B51" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B51" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>377</v>
+      <c r="C51" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>504</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>375</v>
+        <v>404</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>279</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>423</v>
+        <v>291</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>505</v>
-      </c>
-      <c r="B53" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>424</v>
+      <c r="C53" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>506</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>376</v>
+        <v>406</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>425</v>
+        <v>292</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>507</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>99</v>
+        <v>407</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>391</v>
+        <v>293</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>508</v>
-      </c>
-      <c r="B56" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B56" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>155</v>
+      <c r="C56" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>509</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>378</v>
+        <v>409</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>510</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>374</v>
+        <v>410</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>278</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>427</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>511</v>
+        <v>411</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>512</v>
+        <v>412</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>513</v>
+        <v>413</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>514</v>
+        <v>414</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>350</v>
+        <v>254</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>351</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>515</v>
+        <v>415</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>436</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>435</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>518</v>
+        <v>418</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>413</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>519</v>
+        <v>419</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>521</v>
+        <v>421</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>522</v>
+        <v>422</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>353</v>
+        <v>257</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>523</v>
+        <v>423</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>524</v>
+        <v>424</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>381</v>
+        <v>285</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>441</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>526</v>
+        <v>426</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>379</v>
+        <v>283</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>527</v>
+        <v>427</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>355</v>
+        <v>259</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>528</v>
+        <v>428</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>356</v>
+        <v>260</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>529</v>
+        <v>429</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>530</v>
+        <v>430</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>357</v>
+        <v>261</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>531</v>
+        <v>431</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>358</v>
+        <v>262</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>532</v>
+        <v>432</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>533</v>
+        <v>433</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>534</v>
+        <v>434</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>359</v>
+        <v>263</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>393</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>535</v>
+        <v>435</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>382</v>
+        <v>286</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>362</v>
+        <v>266</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>537</v>
+        <v>437</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>361</v>
+        <v>265</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>538</v>
+        <v>438</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>360</v>
+        <v>264</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>539</v>
+        <v>439</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>363</v>
+        <v>267</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>541</v>
+        <v>441</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>542</v>
+        <v>442</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>543</v>
+        <v>443</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>545</v>
+        <v>445</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>546</v>
+        <v>446</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>392</v>
+        <v>294</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>547</v>
+        <v>447</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>548</v>
+        <v>448</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>439</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>549</v>
+        <v>449</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>366</v>
+        <v>270</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>377</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>375</v>
+        <v>279</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>389</v>
+        <v>291</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>551</v>
+        <v>451</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>367</v>
+        <v>271</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>552</v>
+        <v>452</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>376</v>
+        <v>280</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>425</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>553</v>
+        <v>453</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>391</v>
+        <v>293</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>554</v>
+        <v>454</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>555</v>
+        <v>455</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>556</v>
+        <v>456</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>374</v>
+        <v>278</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>427</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>557</v>
+        <v>457</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>558</v>
+        <v>458</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>226</v>
+        <v>549</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>225</v>
+        <v>550</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>459</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>460</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>461</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>462</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="C110" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="D110" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    </row>
+    <row r="111" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>463</v>
+      </c>
+      <c r="B111" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="B109" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C111" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="B110" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="D111" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="B111" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>464</v>
+      </c>
+      <c r="B112" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="B112" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C112" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>565</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>566</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>567</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C115" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>468</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>469</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="D115" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>568</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>569</v>
-      </c>
-      <c r="B117" s="12" t="s">
+      <c r="D117" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>470</v>
+      </c>
+      <c r="B118" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>570</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>124</v>
+      <c r="C118" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>571</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>572</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>573</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="D121" s="30" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>574</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="D122" s="30" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>575</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C123" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="D123" s="30" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>476</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>477</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>478</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D123" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>576</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>577</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>578</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D126" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>579</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>253</v>
+        <v>479</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>580</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>255</v>
+        <v>480</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>581</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>582</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>142</v>
+        <v>482</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>583</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>584</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>585</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>586</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>587</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>588</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>589</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>590</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>270</v>
+        <v>490</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>591</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="D139" s="30" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>592</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>593</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>274</v>
+        <v>493</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>594</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>595</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="D143" s="30" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>596</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="D144" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C144" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>597</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>280</v>
+        <v>497</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="D145" s="30" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>598</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="D146" s="30" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>599</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>284</v>
+        <v>499</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>637</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="D147" s="30" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>600</v>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="D148" s="30" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>601</v>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="D149" s="30" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>602</v>
-      </c>
-      <c r="B150" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>289</v>
+        <v>502</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B151" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>448</v>
+        <v>349</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>603</v>
+        <v>503</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>396</v>
+        <v>298</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>604</v>
+        <v>504</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>605</v>
+        <v>505</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>606</v>
-      </c>
-      <c r="B156" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B156" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>118</v>
+      <c r="C156" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>607</v>
-      </c>
-      <c r="B157" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B157" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C157" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>120</v>
+      <c r="C157" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D157" s="31" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>608</v>
-      </c>
-      <c r="B158" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B158" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C158" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D158" s="13" t="s">
-        <v>127</v>
+      <c r="C158" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>609</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="D159" s="13" t="s">
-        <v>387</v>
+        <v>509</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="D159" s="30" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>610</v>
-      </c>
-      <c r="B160" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="C160" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B160" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="D160" s="12" t="s">
-        <v>128</v>
+      <c r="C160" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D160" s="31" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>611</v>
-      </c>
-      <c r="B161" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B161" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C161" s="12" t="s">
-        <v>330</v>
+      <c r="C161" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>397</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>612</v>
-      </c>
-      <c r="B162" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B162" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C162" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>122</v>
+      <c r="C162" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D162" s="31" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>613</v>
-      </c>
-      <c r="B163" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B163" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C163" s="12" t="s">
-        <v>332</v>
+      <c r="C163" s="31" t="s">
+        <v>236</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>614</v>
-      </c>
-      <c r="B164" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B164" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C164" s="12" t="s">
-        <v>203</v>
+      <c r="C164" s="31" t="s">
+        <v>202</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>399</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>615</v>
-      </c>
-      <c r="B165" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B165" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C165" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>163</v>
+      <c r="C165" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D165" s="31" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>616</v>
-      </c>
-      <c r="B166" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B166" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C166" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>125</v>
+      <c r="C166" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D166" s="31" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>617</v>
-      </c>
-      <c r="B167" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B167" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C167" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>131</v>
+      <c r="C167" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D167" s="31" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>618</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>333</v>
+        <v>518</v>
+      </c>
+      <c r="B168" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C168" s="31" t="s">
+        <v>237</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>619</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D169" s="12" t="s">
-        <v>138</v>
+        <v>519</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C169" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D169" s="31" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>620</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>130</v>
+        <v>520</v>
+      </c>
+      <c r="B170" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C170" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D170" s="31" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>621</v>
-      </c>
-      <c r="B171" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D171" s="12" t="s">
-        <v>133</v>
+        <v>521</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C171" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D171" s="31" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>622</v>
-      </c>
-      <c r="B172" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>135</v>
+        <v>522</v>
+      </c>
+      <c r="B172" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C172" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D172" s="31" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>623</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>137</v>
+        <v>523</v>
+      </c>
+      <c r="B173" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C173" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D173" s="31" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>624</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>336</v>
+        <v>524</v>
+      </c>
+      <c r="B174" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>240</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>400</v>
+        <v>302</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>625</v>
-      </c>
-      <c r="B175" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>139</v>
+        <v>525</v>
+      </c>
+      <c r="B175" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D175" s="31" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>626</v>
-      </c>
-      <c r="B176" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="B176" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C176" s="12" t="s">
-        <v>337</v>
+      <c r="C176" s="31" t="s">
+        <v>241</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>627</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>383</v>
+        <v>527</v>
+      </c>
+      <c r="B177" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>628</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D178" s="12" t="s">
-        <v>143</v>
+        <v>528</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C178" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D178" s="31" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>629</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>338</v>
+        <v>529</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C179" s="31" t="s">
+        <v>242</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>630</v>
-      </c>
-      <c r="B180" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B180" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C180" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D180" s="12" t="s">
-        <v>140</v>
+      <c r="C180" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D180" s="31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>631</v>
-      </c>
-      <c r="B181" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D181" s="12" t="s">
-        <v>145</v>
+        <v>531</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C181" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D181" s="31" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>632</v>
-      </c>
-      <c r="B182" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>126</v>
+        <v>532</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C182" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D182" s="31" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>633</v>
-      </c>
-      <c r="B183" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B183" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C183" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D183" s="12" t="s">
-        <v>149</v>
+      <c r="C183" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D183" s="31" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>634</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D184" s="12" t="s">
-        <v>147</v>
+        <v>534</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C184" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D184" s="31" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>635</v>
-      </c>
-      <c r="B185" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C185" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D185" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D185" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>636</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D186" s="12" t="s">
-        <v>164</v>
+        <v>536</v>
+      </c>
+      <c r="B186" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C186" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D186" s="31" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>637</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>344</v>
+        <v>537</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>248</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>401</v>
+        <v>303</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>638</v>
-      </c>
-      <c r="B188" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B188" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C188" s="12" t="s">
-        <v>218</v>
+      <c r="C188" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>402</v>
+        <v>304</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>639</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D189" s="13" t="s">
-        <v>162</v>
+        <v>539</v>
+      </c>
+      <c r="B189" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C189" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D189" s="30" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>640</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>154</v>
+        <v>540</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C190" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D190" s="31" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>641</v>
-      </c>
-      <c r="B191" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>346</v>
+        <v>541</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C191" s="31" t="s">
+        <v>250</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>642</v>
-      </c>
-      <c r="B192" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B192" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C192" s="12" t="s">
-        <v>220</v>
+      <c r="C192" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>643</v>
-      </c>
-      <c r="B193" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D193" s="13" t="s">
-        <v>408</v>
+        <v>543</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C193" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D193" s="30" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>644</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>347</v>
+        <v>544</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C194" s="31" t="s">
+        <v>251</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>440</v>
+        <v>341</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>645</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>222</v>
+        <v>545</v>
+      </c>
+      <c r="B195" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C195" s="31" t="s">
+        <v>221</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>646</v>
-      </c>
-      <c r="B196" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D196" s="12" t="s">
-        <v>156</v>
+        <v>546</v>
+      </c>
+      <c r="B196" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D196" s="31" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>647</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>223</v>
+        <v>547</v>
+      </c>
+      <c r="B197" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C197" s="31" t="s">
+        <v>222</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>648</v>
-      </c>
-      <c r="B198" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>349</v>
+        <v>548</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" s="31" t="s">
+        <v>253</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/db/db_I.3.2.2.7_cleared.xlsx
+++ b/db/db_I.3.2.2.7_cleared.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\235media\Projekte\sdm\brauchtum\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20176D48-27B9-4EC9-B593-C62210901A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C360FF53-A7E5-47DD-87DA-ECF4F227C5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.3.2.2 - Audio rel. Brauchtum" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="649">
   <si>
     <t>Weihnachten</t>
   </si>
@@ -708,16 +708,10 @@
     <t>Zemřelého nejdříve položili na umrlčí prkno a na druhý den do rakve, kterou hrobník přivezl na trakaři. Rakev zůstala v domě tak dlouho, dokud mrtvý nebyl úplně bledý. V této době se v domě nesměl rozdělávat oheň a vařit se muselo u sousedů. Den nato se konal pohřeb a strážení nebožtíka. Umrlčí prkno se pustilo po vodě.</t>
   </si>
   <si>
-    <t>„Das Vieh hat geredet, da durfte man nicht zuhören...“</t>
-  </si>
-  <si>
     <t>„Ty hezké jsme vyšlehali trochu víc než ty škaredé.“</t>
   </si>
   <si>
     <t>„Během Štědrovečerní večeře byly dveře od stavení pevně zamčené.“</t>
-  </si>
-  <si>
-    <t>„Dobytek mluvil lidskou řečí, nesmělo se mu naslouchat...“</t>
   </si>
   <si>
     <t>Divoké noci na Žatecku</t>
@@ -946,9 +940,6 @@
   </si>
   <si>
     <t>Rattling in South Moravia</t>
-  </si>
-  <si>
-    <t>“The cattle have spoken, no one should be listening...”</t>
   </si>
   <si>
     <t>Whatever was dreamt during the Twelve Days of Christmas or “Rauhnächte” – from Christmas Eve (24 December) to Epiphany (6 January) – was supposed to come true. It was said that during this period the cattle would speak. To keep misfortune at bay, no one should listen to what they were saying and no washing should be hung out to dry. A copper coin was to be placed on the grave of deceased relatives so that they could buy a Lord’s Prayer in heaven.</t>
@@ -2589,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GO198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153:D198"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,13 +2595,13 @@
   <sheetData>
     <row r="1" spans="1:197" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2722,7 +2713,7 @@
     </row>
     <row r="2" spans="1:197" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -2736,7 +2727,7 @@
     </row>
     <row r="3" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>1</v>
@@ -2943,7 +2934,7 @@
     </row>
     <row r="4" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>8</v>
@@ -3150,7 +3141,7 @@
     </row>
     <row r="5" spans="1:197" s="14" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>2</v>
@@ -3357,7 +3348,7 @@
     </row>
     <row r="6" spans="1:197" s="14" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -3564,7 +3555,7 @@
     </row>
     <row r="7" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>3</v>
@@ -3771,13 +3762,13 @@
     </row>
     <row r="8" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>109</v>
@@ -3978,7 +3969,7 @@
     </row>
     <row r="9" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>0</v>
@@ -4185,7 +4176,7 @@
     </row>
     <row r="10" spans="1:197" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>4</v>
@@ -4392,7 +4383,7 @@
     </row>
     <row r="11" spans="1:197" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>113</v>
@@ -4599,13 +4590,13 @@
     </row>
     <row r="12" spans="1:197" s="14" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>156</v>
@@ -4806,21 +4797,21 @@
     </row>
     <row r="13" spans="1:197" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:197" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>9</v>
@@ -4835,7 +4826,7 @@
     </row>
     <row r="15" spans="1:197" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -4844,26 +4835,26 @@
         <v>173</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:197" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>12</v>
@@ -4877,7 +4868,7 @@
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>11</v>
@@ -4886,26 +4877,26 @@
         <v>176</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>48</v>
@@ -4914,26 +4905,26 @@
         <v>178</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>51</v>
@@ -4947,7 +4938,7 @@
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>53</v>
@@ -4956,18 +4947,18 @@
         <v>179</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>165</v>
@@ -4975,21 +4966,21 @@
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>31</v>
@@ -5003,55 +4994,55 @@
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>128</v>
@@ -5059,7 +5050,7 @@
     </row>
     <row r="31" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>67</v>
@@ -5068,18 +5059,18 @@
         <v>184</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>133</v>
@@ -5087,21 +5078,21 @@
     </row>
     <row r="33" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>15</v>
@@ -5110,60 +5101,60 @@
         <v>209</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>140</v>
@@ -5171,13 +5162,13 @@
     </row>
     <row r="39" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>167</v>
@@ -5185,27 +5176,27 @@
     </row>
     <row r="40" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>143</v>
@@ -5213,7 +5204,7 @@
     </row>
     <row r="42" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>41</v>
@@ -5222,12 +5213,12 @@
         <v>195</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>42</v>
@@ -5241,7 +5232,7 @@
     </row>
     <row r="44" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>82</v>
@@ -5255,7 +5246,7 @@
     </row>
     <row r="45" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>84</v>
@@ -5269,7 +5260,7 @@
     </row>
     <row r="46" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>86</v>
@@ -5278,54 +5269,54 @@
         <v>197</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>91</v>
@@ -5334,82 +5325,82 @@
         <v>198</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>98</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>20</v>
@@ -5423,49 +5414,49 @@
     </row>
     <row r="57" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>159</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B58" s="30" t="s">
         <v>160</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>9</v>
@@ -5479,7 +5470,7 @@
     </row>
     <row r="61" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>10</v>
@@ -5488,26 +5479,26 @@
         <v>173</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>12</v>
@@ -5521,7 +5512,7 @@
     </row>
     <row r="64" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>11</v>
@@ -5530,26 +5521,26 @@
         <v>176</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>48</v>
@@ -5558,26 +5549,26 @@
         <v>178</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>51</v>
@@ -5591,7 +5582,7 @@
     </row>
     <row r="69" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>53</v>
@@ -5600,18 +5591,18 @@
         <v>179</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>165</v>
@@ -5619,21 +5610,21 @@
     </row>
     <row r="71" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>31</v>
@@ -5647,55 +5638,55 @@
     </row>
     <row r="73" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>128</v>
@@ -5703,7 +5694,7 @@
     </row>
     <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>67</v>
@@ -5712,18 +5703,18 @@
         <v>184</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>133</v>
@@ -5731,21 +5722,21 @@
     </row>
     <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>15</v>
@@ -5754,60 +5745,60 @@
         <v>209</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>140</v>
@@ -5815,13 +5806,13 @@
     </row>
     <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>167</v>
@@ -5829,27 +5820,27 @@
     </row>
     <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>143</v>
@@ -5857,7 +5848,7 @@
     </row>
     <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>41</v>
@@ -5866,12 +5857,12 @@
         <v>195</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>42</v>
@@ -5885,7 +5876,7 @@
     </row>
     <row r="90" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>82</v>
@@ -5899,7 +5890,7 @@
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>84</v>
@@ -5913,7 +5904,7 @@
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>86</v>
@@ -5922,54 +5913,54 @@
         <v>197</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>91</v>
@@ -5978,82 +5969,82 @@
         <v>198</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>20</v>
@@ -6067,49 +6058,49 @@
     </row>
     <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>159</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>160</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>223</v>
+        <v>546</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>226</v>
+        <v>547</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>549</v>
@@ -6117,13 +6108,13 @@
       <c r="C106" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="6" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>552</v>
@@ -6135,37 +6126,37 @@
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>460</v>
-      </c>
-      <c r="B108" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>458</v>
+      </c>
+      <c r="B109" s="30" t="s">
         <v>555</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C109" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D109" s="30" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>461</v>
-      </c>
-      <c r="B109" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>558</v>
@@ -6177,9 +6168,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>561</v>
@@ -6191,9 +6182,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>564</v>
@@ -6205,9 +6196,9 @@
         <v>566</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>567</v>
@@ -6219,9 +6210,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>570</v>
@@ -6233,79 +6224,79 @@
         <v>572</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>464</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>465</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>466</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>467</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B118" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="C115" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="D115" s="30" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>468</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C116" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>469</v>
-      </c>
-      <c r="B117" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C117" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>470</v>
-      </c>
-      <c r="B118" s="31" t="s">
-        <v>57</v>
-      </c>
       <c r="C118" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>306</v>
+        <v>182</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B119" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D119" s="30" t="s">
         <v>576</v>
       </c>
-      <c r="C119" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D119" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>577</v>
@@ -6317,9 +6308,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>580</v>
@@ -6331,9 +6322,9 @@
         <v>582</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>583</v>
@@ -6345,65 +6336,65 @@
         <v>585</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>472</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>473</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>474</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>475</v>
       </c>
-      <c r="B123" s="30" t="s">
-        <v>586</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>587</v>
-      </c>
-      <c r="D123" s="30" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B126" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>476</v>
-      </c>
-      <c r="B124" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D124" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>477</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>589</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="D125" s="30" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>478</v>
-      </c>
-      <c r="B126" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C126" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>479</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>592</v>
@@ -6417,7 +6408,7 @@
     </row>
     <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>595</v>
@@ -6431,49 +6422,49 @@
     </row>
     <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>481</v>
-      </c>
-      <c r="B129" s="30" t="s">
-        <v>598</v>
+        <v>478</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>599</v>
-      </c>
-      <c r="D129" s="30" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C130" s="30" t="s">
-        <v>228</v>
+        <v>77</v>
+      </c>
+      <c r="C130" s="31" t="s">
+        <v>212</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>483</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C131" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D131" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B132" s="30" t="s">
         <v>601</v>
@@ -6485,9 +6476,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>604</v>
@@ -6499,9 +6490,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>607</v>
@@ -6513,9 +6504,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B135" s="30" t="s">
         <v>610</v>
@@ -6527,9 +6518,9 @@
         <v>612</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B136" s="30" t="s">
         <v>613</v>
@@ -6541,37 +6532,37 @@
         <v>615</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>489</v>
-      </c>
-      <c r="B137" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>487</v>
+      </c>
+      <c r="B138" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="C137" s="30" t="s">
+      <c r="C138" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="D137" s="30" t="s">
+      <c r="D138" s="30" t="s">
         <v>618</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>490</v>
-      </c>
-      <c r="B138" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C138" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="D138" s="31" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>619</v>
@@ -6583,37 +6574,37 @@
         <v>621</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>492</v>
-      </c>
-      <c r="B140" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C140" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>490</v>
+      </c>
+      <c r="B141" s="30" t="s">
         <v>622</v>
       </c>
-      <c r="C140" s="30" t="s">
+      <c r="C141" s="30" t="s">
         <v>623</v>
       </c>
-      <c r="D140" s="30" t="s">
+      <c r="D141" s="30" t="s">
         <v>624</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>493</v>
-      </c>
-      <c r="B141" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C141" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D141" s="31" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B142" s="30" t="s">
         <v>625</v>
@@ -6625,37 +6616,37 @@
         <v>627</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>495</v>
-      </c>
-      <c r="B143" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C143" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D143" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>493</v>
+      </c>
+      <c r="B144" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="C143" s="30" t="s">
+      <c r="C144" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="D143" s="30" t="s">
+      <c r="D144" s="30" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>496</v>
-      </c>
-      <c r="B144" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C144" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="D144" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>631</v>
@@ -6669,7 +6660,7 @@
     </row>
     <row r="146" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B146" s="30" t="s">
         <v>634</v>
@@ -6681,9 +6672,9 @@
         <v>636</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>637</v>
@@ -6695,9 +6686,9 @@
         <v>639</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B148" s="30" t="s">
         <v>640</v>
@@ -6709,9 +6700,9 @@
         <v>642</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B149" s="30" t="s">
         <v>643</v>
@@ -6723,9 +6714,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>646</v>
@@ -6737,45 +6728,39 @@
         <v>648</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B151" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>650</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>651</v>
-      </c>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
     </row>
     <row r="152" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>32</v>
@@ -6789,7 +6774,7 @@
     </row>
     <row r="155" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>33</v>
@@ -6803,13 +6788,13 @@
     </row>
     <row r="156" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B156" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D156" s="31" t="s">
         <v>117</v>
@@ -6817,7 +6802,7 @@
     </row>
     <row r="157" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B157" s="31" t="s">
         <v>47</v>
@@ -6831,13 +6816,13 @@
     </row>
     <row r="158" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B158" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D158" s="30" t="s">
         <v>126</v>
@@ -6845,27 +6830,27 @@
     </row>
     <row r="159" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D160" s="31" t="s">
         <v>127</v>
@@ -6873,27 +6858,27 @@
     </row>
     <row r="161" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B161" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B162" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D162" s="31" t="s">
         <v>121</v>
@@ -6901,21 +6886,21 @@
     </row>
     <row r="163" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B163" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B164" s="31" t="s">
         <v>56</v>
@@ -6924,12 +6909,12 @@
         <v>202</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B165" s="31" t="s">
         <v>36</v>
@@ -6943,7 +6928,7 @@
     </row>
     <row r="166" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B166" s="31" t="s">
         <v>58</v>
@@ -6957,7 +6942,7 @@
     </row>
     <row r="167" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B167" s="31" t="s">
         <v>60</v>
@@ -6971,21 +6956,21 @@
     </row>
     <row r="168" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B168" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B169" s="31" t="s">
         <v>64</v>
@@ -6999,13 +6984,13 @@
     </row>
     <row r="170" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B170" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D170" s="31" t="s">
         <v>129</v>
@@ -7013,7 +6998,7 @@
     </row>
     <row r="171" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B171" s="31" t="s">
         <v>69</v>
@@ -7027,13 +7012,13 @@
     </row>
     <row r="172" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B172" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D172" s="31" t="s">
         <v>134</v>
@@ -7041,7 +7026,7 @@
     </row>
     <row r="173" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B173" s="31" t="s">
         <v>72</v>
@@ -7055,21 +7040,21 @@
     </row>
     <row r="174" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B174" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B175" s="31" t="s">
         <v>74</v>
@@ -7083,35 +7068,35 @@
     </row>
     <row r="176" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B176" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B177" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C177" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B178" s="31" t="s">
         <v>78</v>
@@ -7125,21 +7110,21 @@
     </row>
     <row r="179" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B179" s="31" t="s">
         <v>79</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B180" s="31" t="s">
         <v>38</v>
@@ -7153,13 +7138,13 @@
     </row>
     <row r="181" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B181" s="31" t="s">
         <v>80</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D181" s="31" t="s">
         <v>144</v>
@@ -7167,13 +7152,13 @@
     </row>
     <row r="182" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B182" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D182" s="31" t="s">
         <v>125</v>
@@ -7181,13 +7166,13 @@
     </row>
     <row r="183" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B183" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D183" s="31" t="s">
         <v>148</v>
@@ -7195,7 +7180,7 @@
     </row>
     <row r="184" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B184" s="31" t="s">
         <v>83</v>
@@ -7209,13 +7194,13 @@
     </row>
     <row r="185" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B185" s="30" t="s">
         <v>151</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D185" s="30" t="s">
         <v>152</v>
@@ -7223,13 +7208,13 @@
     </row>
     <row r="186" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B186" s="31" t="s">
         <v>87</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D186" s="31" t="s">
         <v>163</v>
@@ -7237,21 +7222,21 @@
     </row>
     <row r="187" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B187" s="31" t="s">
         <v>89</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B188" s="31" t="s">
         <v>39</v>
@@ -7260,18 +7245,18 @@
         <v>217</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B189" s="31" t="s">
         <v>92</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D189" s="30" t="s">
         <v>161</v>
@@ -7279,7 +7264,7 @@
     </row>
     <row r="190" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B190" s="31" t="s">
         <v>93</v>
@@ -7293,21 +7278,21 @@
     </row>
     <row r="191" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B191" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B192" s="31" t="s">
         <v>40</v>
@@ -7316,12 +7301,12 @@
         <v>219</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B193" s="31" t="s">
         <v>96</v>
@@ -7330,26 +7315,26 @@
         <v>220</v>
       </c>
       <c r="D193" s="30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B194" s="31" t="s">
         <v>97</v>
       </c>
       <c r="C194" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B195" s="31" t="s">
         <v>99</v>
@@ -7358,18 +7343,18 @@
         <v>221</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B196" s="31" t="s">
         <v>101</v>
       </c>
       <c r="C196" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D196" s="31" t="s">
         <v>155</v>
@@ -7377,7 +7362,7 @@
     </row>
     <row r="197" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B197" s="31" t="s">
         <v>102</v>
@@ -7386,21 +7371,21 @@
         <v>222</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B198" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C198" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
